--- a/qa/01.测试用例/副本系统/副本入口/阵容选择测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本入口/阵容选择测试用例.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="822">
   <si>
     <t>caseID</t>
   </si>
@@ -1596,10 +1596,6 @@
   </si>
   <si>
     <t>宠物战力为B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示BP：A</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3002,48 +2998,240 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示大招，物理，法术，buff，被动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1165</t>
+  </si>
+  <si>
+    <t>弹出技能tips与对应技能配置内容一致，icon变为选中状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击非宠物界面位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物介绍界面关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1166</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1167</t>
+  </si>
+  <si>
+    <t>查看数据库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库记录正确</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号-标题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号-提示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>P</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出重置挑战次数界面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>显示大招，物理，法术，buff，被动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1165</t>
-  </si>
-  <si>
-    <t>弹出技能tips与对应技能配置内容一致，icon变为选中状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击非宠物界面位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物介绍界面关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1166</t>
+    <t>BG-1168</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1169</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“raid complete！”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1170</t>
+  </si>
+  <si>
+    <t>包括标题，战果展示，额外奖励，确定按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>255/204/0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在奖励区域上方居中位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>BG-1167</t>
-  </si>
-  <si>
-    <t>查看数据库</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库记录正确</t>
+    <t>B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在额外奖励区域上方居中位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1171</t>
+  </si>
+  <si>
+    <t>BG-1173</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看确定按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面下方居中位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1174</t>
+  </si>
+  <si>
+    <t>个数调整左侧为左箭头，中间为数量，右侧为右箭头。默认显示数量1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石足够</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石不够</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面关闭，弹出购买钻石确认界面，走购买钻石逻辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1175</t>
+  </si>
+  <si>
+    <t>查看重置次数显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示格式为n/m</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1176</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看敌方战力显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置战力为x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置战力为y</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3051,175 +3239,63 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>字号-标题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>30号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>字号-提示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>24号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出重置挑战次数界面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1168</t>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1169</t>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“raid complete！”</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1170</t>
-  </si>
-  <si>
-    <t>包括标题，战果展示，额外奖励，确定按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>255/204/0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>30号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>在奖励区域上方居中位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>在额外奖励区域上方居中位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1171</t>
-  </si>
-  <si>
-    <t>BG-1173</t>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看确定按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面下方居中位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击确定按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1174</t>
-  </si>
-  <si>
-    <t>个数调整左侧为左箭头，中间为数量，右侧为右箭头。默认显示数量1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石足够</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石不够</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面关闭，弹出购买钻石确认界面，走购买钻石逻辑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1175</t>
-  </si>
-  <si>
-    <t>查看重置次数显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示格式为n/m</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-1176</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>显示为“综合BP：xxxx”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“综合BP：x”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“综合BP：y”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看己方战力显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上阵宠物为A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上阵宠物为A、B、C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“综合BP：x”x为宠物A战力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“综合BP：x”x为宠物A、B、C战力和</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看战力数字显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方战力数值&lt;敌方战力数值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字显示为红色</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方战力数值&gt;敌方战力数值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方战力数值=敌方战力数值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字显示为正常字色</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示BP：A</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3370,7 +3446,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3398,6 +3474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3518,7 +3600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3659,17 +3741,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3680,32 +3768,7 @@
     <cellStyle name="常规_目录" xfId="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <b/>
@@ -3751,13 +3814,6 @@
         <b/>
         <i val="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -4129,181 +4185,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4328,13 +4209,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>130289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4366,13 +4247,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>666054</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4404,13 +4285,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>234238</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4472,13 +4353,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>513757</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>28287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4510,13 +4391,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>171794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4536,6 +4417,44 @@
         <a:xfrm>
           <a:off x="12668250" y="47091600"/>
           <a:ext cx="3181350" cy="2076794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91969</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227871</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12664969" y="819150"/>
+          <a:ext cx="4365002" cy="2981325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4659,7 +4578,7 @@
       <sheetName val="设计备忘"/>
       <sheetName val="任务拆分"/>
       <sheetName val="功能验收"/>
-      <sheetName val="宠物icon规范（废弃）"/>
+      <sheetName val="宠物icon规范"/>
       <sheetName val="评审问题回答"/>
     </sheetNames>
     <sheetDataSet>
@@ -5112,13 +5031,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J246"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G231" sqref="G231"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5141,9 +5060,9 @@
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -5197,7 +5116,7 @@
         <v>168</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -5228,10 +5147,10 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="H6" s="57" t="s">
         <v>660</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -5248,10 +5167,10 @@
         <v>171</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>667</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>669</v>
+        <v>666</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -5266,7 +5185,7 @@
         <v>172</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -5278,10 +5197,10 @@
         <v>229</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -5293,10 +5212,10 @@
         <v>230</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -5311,7 +5230,7 @@
         <v>231</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -5326,7 +5245,7 @@
         <v>175</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -5341,10 +5260,10 @@
         <v>177</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="I13" s="58" t="s">
         <v>670</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -5359,7 +5278,7 @@
         <v>179</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -5374,7 +5293,7 @@
         <v>181</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -5393,7 +5312,7 @@
         <v>276</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
@@ -5408,7 +5327,7 @@
         <v>277</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
@@ -5425,10 +5344,10 @@
         <v>282</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="I18" s="58" t="s">
         <v>674</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -5443,7 +5362,7 @@
         <v>283</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
@@ -5458,7 +5377,7 @@
         <v>284</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
@@ -5466,17 +5385,17 @@
       <c r="C21" s="31"/>
       <c r="D21" s="30"/>
       <c r="E21" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="I21" s="58" t="s">
         <v>679</v>
-      </c>
-      <c r="I21" s="60" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
@@ -5495,7 +5414,7 @@
         <v>184</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
@@ -5510,7 +5429,7 @@
         <v>186</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
@@ -5525,7 +5444,7 @@
         <v>188</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
@@ -5540,7 +5459,7 @@
         <v>190</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
@@ -5549,13 +5468,13 @@
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
@@ -5564,13 +5483,13 @@
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -5585,7 +5504,7 @@
         <v>286</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -5602,7 +5521,7 @@
         <v>290</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
@@ -5617,86 +5536,74 @@
         <v>291</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="30">
-        <v>4</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>687</v>
+      <c r="D31" s="30"/>
+      <c r="E31" s="62" t="s">
+        <v>801</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>802</v>
+      </c>
+      <c r="G31" s="62" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>690</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="E32" s="62"/>
+      <c r="F32" s="62" t="s">
+        <v>803</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="E33" s="62"/>
+      <c r="F33" s="62" t="s">
+        <v>804</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E34" s="62"/>
+      <c r="F34" s="62" t="s">
+        <v>805</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31" t="s">
-        <v>299</v>
-      </c>
+      <c r="D35" s="30">
+        <v>4</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="F35" s="31"/>
       <c r="G35" s="31" t="s">
-        <v>300</v>
+        <v>685</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
@@ -5704,34 +5611,34 @@
       <c r="C36" s="31"/>
       <c r="D36" s="30"/>
       <c r="E36" s="31" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F36" s="31" t="s">
         <v>294</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>295</v>
+        <v>689</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
       <c r="D37" s="30"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>297</v>
+        <v>688</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="30"/>
@@ -5740,10 +5647,10 @@
         <v>298</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>303</v>
+        <v>687</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
@@ -5758,7 +5665,7 @@
         <v>300</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
@@ -5766,48 +5673,46 @@
       <c r="C40" s="31"/>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>693</v>
+        <v>294</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>697</v>
+        <v>295</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="61" t="s">
-        <v>700</v>
-      </c>
+      <c r="E41" s="31"/>
       <c r="F41" s="31" t="s">
-        <v>694</v>
+        <v>302</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>698</v>
+        <v>297</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31" t="s">
-        <v>695</v>
+        <v>298</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>698</v>
+        <v>303</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.35">
@@ -5816,13 +5721,13 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31" t="s">
-        <v>696</v>
+        <v>299</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>699</v>
+        <v>300</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.35">
@@ -5830,49 +5735,48 @@
       <c r="C44" s="31"/>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>701</v>
-      </c>
-      <c r="F44" s="31"/>
+        <v>691</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>692</v>
+      </c>
       <c r="G44" s="31" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I44" s="60" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
-      <c r="D45" s="30">
-        <v>5</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>704</v>
-      </c>
-      <c r="F45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="59" t="s">
+        <v>699</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>693</v>
+      </c>
       <c r="G45" s="31" t="s">
-        <v>311</v>
+        <v>697</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
       <c r="D46" s="30"/>
-      <c r="E46" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="F46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31" t="s">
+        <v>694</v>
+      </c>
       <c r="G46" s="31" t="s">
-        <v>312</v>
+        <v>697</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.35">
@@ -5881,192 +5785,173 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31" t="s">
-        <v>305</v>
+        <v>695</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>306</v>
+        <v>698</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31" t="s">
-        <v>313</v>
-      </c>
+      <c r="E48" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="F48" s="31"/>
       <c r="G48" s="31" t="s">
-        <v>314</v>
+        <v>701</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
+      </c>
+      <c r="I48" s="58" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
       <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>662</v>
-      </c>
+      <c r="E49" s="62" t="s">
+        <v>810</v>
+      </c>
+      <c r="F49" s="62" t="s">
+        <v>802</v>
+      </c>
+      <c r="G49" s="62" t="s">
+        <v>806</v>
+      </c>
+      <c r="I49" s="58"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
       <c r="D50" s="30"/>
-      <c r="E50" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>662</v>
-      </c>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62" t="s">
+        <v>803</v>
+      </c>
+      <c r="G50" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="I50" s="58"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
       <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>662</v>
-      </c>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62" t="s">
+        <v>811</v>
+      </c>
+      <c r="G51" s="62" t="s">
+        <v>813</v>
+      </c>
+      <c r="I51" s="58"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>708</v>
-      </c>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62" t="s">
+        <v>812</v>
+      </c>
+      <c r="G52" s="62" t="s">
+        <v>814</v>
+      </c>
+      <c r="I52" s="58"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="30"/>
       <c r="C53" s="31"/>
       <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>705</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>709</v>
-      </c>
+      <c r="E53" s="62" t="s">
+        <v>815</v>
+      </c>
+      <c r="F53" s="62" t="s">
+        <v>816</v>
+      </c>
+      <c r="G53" s="62" t="s">
+        <v>817</v>
+      </c>
+      <c r="I53" s="58"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="30"/>
       <c r="C54" s="31"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>708</v>
-      </c>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62" t="s">
+        <v>818</v>
+      </c>
+      <c r="G54" s="62" t="s">
+        <v>820</v>
+      </c>
+      <c r="I54" s="58"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
-      <c r="D55" s="30">
-        <v>4</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>710</v>
-      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62" t="s">
+        <v>819</v>
+      </c>
+      <c r="G55" s="62" t="s">
+        <v>820</v>
+      </c>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="30"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="30"/>
+      <c r="D56" s="30">
+        <v>5</v>
+      </c>
       <c r="E56" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>194</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="F56" s="31"/>
       <c r="G56" s="31" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="33" t="s">
-        <v>196</v>
-      </c>
+      <c r="E57" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" s="31"/>
       <c r="G57" s="31" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="I57" s="60" t="s">
-        <v>712</v>
+        <v>661</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="30"/>
-      <c r="E58" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31" t="s">
+        <v>305</v>
+      </c>
       <c r="G58" s="31" t="s">
-        <v>198</v>
+        <v>306</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I58" s="60" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
@@ -6075,13 +5960,13 @@
       <c r="D59" s="30"/>
       <c r="E59" s="31"/>
       <c r="F59" s="31" t="s">
-        <v>199</v>
+        <v>313</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
@@ -6090,43 +5975,45 @@
       <c r="D60" s="30"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="30"/>
       <c r="C61" s="31"/>
       <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
+      <c r="E61" s="31" t="s">
+        <v>308</v>
+      </c>
       <c r="F61" s="31" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="30"/>
       <c r="C62" s="31"/>
       <c r="D62" s="30"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
@@ -6134,16 +6021,16 @@
       <c r="C63" s="31"/>
       <c r="D63" s="30"/>
       <c r="E63" s="31" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
@@ -6152,13 +6039,13 @@
       <c r="D64" s="30"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>240</v>
+        <v>704</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
@@ -6166,50 +6053,48 @@
       <c r="C65" s="31"/>
       <c r="D65" s="30"/>
       <c r="E65" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>245</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="F65" s="31"/>
       <c r="G65" s="31" t="s">
-        <v>244</v>
+        <v>640</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="30"/>
       <c r="C66" s="31"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31" t="s">
-        <v>246</v>
-      </c>
+      <c r="D66" s="30">
+        <v>4</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="31"/>
       <c r="G66" s="31" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="30"/>
       <c r="C67" s="31"/>
-      <c r="D67" s="30">
-        <v>6</v>
-      </c>
+      <c r="D67" s="30"/>
       <c r="E67" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>716</v>
+        <v>193</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>717</v>
+        <v>195</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>672</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
@@ -6217,32 +6102,35 @@
       <c r="C68" s="31"/>
       <c r="D68" s="30"/>
       <c r="E68" s="31"/>
-      <c r="F68" s="31" t="s">
-        <v>718</v>
+      <c r="F68" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>719</v>
+        <v>232</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+      <c r="I68" s="58" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="30"/>
       <c r="C69" s="31"/>
       <c r="D69" s="30"/>
       <c r="E69" s="31" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31" t="s">
-        <v>720</v>
+        <v>198</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="I69" s="60" t="s">
-        <v>722</v>
+        <v>666</v>
+      </c>
+      <c r="I69" s="58" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
@@ -6251,13 +6139,13 @@
       <c r="D70" s="30"/>
       <c r="E70" s="31"/>
       <c r="F70" s="31" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>723</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
@@ -6266,60 +6154,60 @@
       <c r="D71" s="30"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B72" s="30"/>
       <c r="C72" s="31"/>
       <c r="D72" s="30"/>
       <c r="E72" s="31"/>
       <c r="F72" s="31" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>396</v>
+        <v>236</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B73" s="30"/>
       <c r="C73" s="31"/>
       <c r="D73" s="30"/>
-      <c r="E73" s="31" t="s">
-        <v>397</v>
-      </c>
+      <c r="E73" s="31"/>
       <c r="F73" s="31" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>401</v>
+        <v>237</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="30"/>
       <c r="C74" s="31"/>
       <c r="D74" s="30"/>
-      <c r="E74" s="31"/>
+      <c r="E74" s="31" t="s">
+        <v>241</v>
+      </c>
       <c r="F74" s="31" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>402</v>
+        <v>242</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>729</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
@@ -6328,68 +6216,64 @@
       <c r="D75" s="30"/>
       <c r="E75" s="31"/>
       <c r="F75" s="31" t="s">
-        <v>399</v>
+        <v>239</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>726</v>
+        <v>240</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="I75" s="60" t="s">
-        <v>730</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="30"/>
       <c r="C76" s="31"/>
       <c r="D76" s="30"/>
-      <c r="E76" s="31"/>
+      <c r="E76" s="31" t="s">
+        <v>243</v>
+      </c>
       <c r="F76" s="31" t="s">
-        <v>400</v>
+        <v>245</v>
       </c>
       <c r="G76" s="31" t="s">
-        <v>727</v>
+        <v>244</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="30"/>
       <c r="C77" s="31"/>
-      <c r="D77" s="30">
-        <v>7</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>217</v>
-      </c>
+      <c r="D77" s="30"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="31" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="I77" s="60" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="30"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31"/>
+      <c r="D78" s="30">
+        <v>6</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>210</v>
+      </c>
       <c r="F78" s="31" t="s">
-        <v>263</v>
+        <v>715</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>265</v>
+        <v>716</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>729</v>
+        <v>671</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.35">
@@ -6398,33 +6282,31 @@
       <c r="D79" s="30"/>
       <c r="E79" s="31"/>
       <c r="F79" s="31" t="s">
-        <v>264</v>
+        <v>717</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>266</v>
+        <v>718</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="I79" s="60" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B80" s="30"/>
       <c r="C80" s="31"/>
       <c r="D80" s="30"/>
       <c r="E80" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>194</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F80" s="31"/>
       <c r="G80" s="31" t="s">
-        <v>221</v>
+        <v>719</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>662</v>
+        <v>720</v>
+      </c>
+      <c r="I80" s="58" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
@@ -6433,13 +6315,13 @@
       <c r="D81" s="30"/>
       <c r="E81" s="31"/>
       <c r="F81" s="31" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
@@ -6448,16 +6330,13 @@
       <c r="D82" s="30"/>
       <c r="E82" s="31"/>
       <c r="F82" s="31" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>726</v>
+        <v>215</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="I82" s="60" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
@@ -6466,13 +6345,13 @@
       <c r="D83" s="30"/>
       <c r="E83" s="31"/>
       <c r="F83" s="31" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>727</v>
+        <v>395</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
@@ -6480,16 +6359,16 @@
       <c r="C84" s="31"/>
       <c r="D84" s="30"/>
       <c r="E84" s="31" t="s">
-        <v>223</v>
+        <v>396</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
@@ -6498,13 +6377,13 @@
       <c r="D85" s="30"/>
       <c r="E85" s="31"/>
       <c r="F85" s="31" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>270</v>
+        <v>401</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>672</v>
+        <v>728</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
@@ -6513,16 +6392,16 @@
       <c r="D86" s="30"/>
       <c r="E86" s="31"/>
       <c r="F86" s="31" t="s">
-        <v>271</v>
+        <v>398</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="I86" s="60" t="s">
-        <v>730</v>
+        <v>727</v>
+      </c>
+      <c r="I86" s="58" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
@@ -6531,47 +6410,50 @@
       <c r="D87" s="30"/>
       <c r="E87" s="31"/>
       <c r="F87" s="31" t="s">
-        <v>149</v>
+        <v>399</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="30"/>
       <c r="C88" s="31"/>
-      <c r="D88" s="30"/>
+      <c r="D88" s="30">
+        <v>7</v>
+      </c>
       <c r="E88" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="F88" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>218</v>
+      </c>
       <c r="G88" s="31" t="s">
-        <v>642</v>
+        <v>219</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>662</v>
+        <v>673</v>
+      </c>
+      <c r="I88" s="58" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="30"/>
       <c r="C89" s="31"/>
-      <c r="D89" s="30">
-        <v>8</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>225</v>
-      </c>
+      <c r="D89" s="30"/>
+      <c r="E89" s="31"/>
       <c r="F89" s="31" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>662</v>
+        <v>728</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.35">
@@ -6580,28 +6462,33 @@
       <c r="D90" s="30"/>
       <c r="E90" s="31"/>
       <c r="F90" s="31" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>662</v>
+        <v>727</v>
+      </c>
+      <c r="I90" s="58" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="30"/>
       <c r="C91" s="31"/>
       <c r="D91" s="30"/>
-      <c r="E91" s="31"/>
+      <c r="E91" s="31" t="s">
+        <v>220</v>
+      </c>
       <c r="F91" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>733</v>
+        <v>194</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>221</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.35">
@@ -6610,30 +6497,31 @@
       <c r="D92" s="30"/>
       <c r="E92" s="31"/>
       <c r="F92" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="G92" s="34" t="s">
-        <v>734</v>
+        <v>267</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>662</v>
+        <v>728</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B93" s="30"/>
       <c r="C93" s="31"/>
       <c r="D93" s="30"/>
-      <c r="E93" s="31" t="s">
-        <v>202</v>
-      </c>
+      <c r="E93" s="31"/>
       <c r="F93" s="31" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>204</v>
+        <v>725</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>662</v>
+        <v>727</v>
+      </c>
+      <c r="I93" s="58" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.35">
@@ -6642,13 +6530,13 @@
       <c r="D94" s="30"/>
       <c r="E94" s="31"/>
       <c r="F94" s="31" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>259</v>
+        <v>726</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>662</v>
+        <v>728</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.35">
@@ -6656,16 +6544,16 @@
       <c r="C95" s="31"/>
       <c r="D95" s="30"/>
       <c r="E95" s="31" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.35">
@@ -6674,13 +6562,13 @@
       <c r="D96" s="30"/>
       <c r="E96" s="31"/>
       <c r="F96" s="31" t="s">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.35">
@@ -6689,506 +6577,508 @@
       <c r="D97" s="30"/>
       <c r="E97" s="31"/>
       <c r="F97" s="31" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>255</v>
+        <v>725</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>662</v>
+        <v>727</v>
+      </c>
+      <c r="I97" s="58" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B98" s="30"/>
       <c r="C98" s="31"/>
       <c r="D98" s="30"/>
-      <c r="E98" s="31" t="s">
-        <v>256</v>
-      </c>
+      <c r="E98" s="31"/>
       <c r="F98" s="31" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>208</v>
+        <v>726</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="I98" s="60" t="s">
-        <v>736</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B99" s="30"/>
       <c r="C99" s="31"/>
       <c r="D99" s="30"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31" t="s">
-        <v>257</v>
-      </c>
+      <c r="E99" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="F99" s="31"/>
       <c r="G99" s="31" t="s">
-        <v>258</v>
+        <v>641</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B100" s="30"/>
       <c r="C100" s="31"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="31"/>
+      <c r="D100" s="30">
+        <v>8</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>225</v>
+      </c>
       <c r="F100" s="31" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>737</v>
+        <v>661</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B101" s="30"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="30">
-        <v>9</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>260</v>
-      </c>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
       <c r="F101" s="31" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>738</v>
+        <v>661</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B102" s="30"/>
       <c r="C102" s="31"/>
-      <c r="D102" s="30">
-        <v>10</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31" t="s">
-        <v>262</v>
+      <c r="D102" s="30"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>732</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>738</v>
+        <v>661</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="30"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
+      <c r="F103" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G103" s="34" t="s">
+        <v>733</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B104" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="D104" s="30">
-        <v>1</v>
-      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="30"/>
       <c r="E104" s="31" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="G104" s="31" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B105" s="31"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="31"/>
       <c r="D105" s="30"/>
       <c r="E105" s="31"/>
       <c r="F105" s="31" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B106" s="31"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="30"/>
-      <c r="E106" s="31"/>
+      <c r="E106" s="31" t="s">
+        <v>206</v>
+      </c>
       <c r="F106" s="31" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B107" s="31"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="31"/>
       <c r="D107" s="30"/>
       <c r="E107" s="31"/>
       <c r="F107" s="31" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>729</v>
+        <v>661</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B108" s="31"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="31"/>
       <c r="D108" s="30"/>
       <c r="E108" s="31"/>
       <c r="F108" s="31" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>729</v>
+        <v>661</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B109" s="31"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="31"/>
       <c r="D109" s="30"/>
-      <c r="E109" s="31"/>
+      <c r="E109" s="31" t="s">
+        <v>256</v>
+      </c>
       <c r="F109" s="31" t="s">
-        <v>333</v>
+        <v>207</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>329</v>
+        <v>208</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>662</v>
+        <v>734</v>
+      </c>
+      <c r="I109" s="58" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B110" s="31"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="31"/>
-      <c r="D110" s="30">
-        <v>2</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>334</v>
-      </c>
+      <c r="D110" s="30"/>
+      <c r="E110" s="31"/>
       <c r="F110" s="31" t="s">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="G110" s="31" t="s">
-        <v>336</v>
+        <v>258</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="B111" s="31"/>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B111" s="30"/>
       <c r="C111" s="31"/>
       <c r="D111" s="30"/>
       <c r="E111" s="31"/>
       <c r="F111" s="31" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>739</v>
+        <v>258</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B112" s="31"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="31"/>
-      <c r="D112" s="30"/>
+      <c r="D112" s="30">
+        <v>9</v>
+      </c>
       <c r="E112" s="31" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>339</v>
+        <v>194</v>
       </c>
       <c r="G112" s="31" t="s">
-        <v>340</v>
+        <v>261</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="B113" s="31"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B113" s="30"/>
       <c r="C113" s="31"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31" t="s">
-        <v>354</v>
-      </c>
+      <c r="D113" s="30">
+        <v>10</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F113" s="31"/>
       <c r="G113" s="31" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="30"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E114" s="31"/>
-      <c r="F114" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="G114" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="30"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B115" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D115" s="30">
+        <v>1</v>
+      </c>
       <c r="E115" s="31" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G115" s="31" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" s="31"/>
       <c r="C116" s="31"/>
       <c r="D116" s="30"/>
       <c r="E116" s="31"/>
       <c r="F116" s="31" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G116" s="31" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117" s="31"/>
       <c r="C117" s="31"/>
       <c r="D117" s="30"/>
-      <c r="E117" s="31" t="s">
-        <v>344</v>
-      </c>
+      <c r="E117" s="31"/>
       <c r="F117" s="31" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="G117" s="31" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" s="31"/>
       <c r="C118" s="31"/>
       <c r="D118" s="30"/>
       <c r="E118" s="31"/>
       <c r="F118" s="31" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="G118" s="31" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" s="31"/>
       <c r="C119" s="31"/>
       <c r="D119" s="30"/>
-      <c r="E119" s="31" t="s">
-        <v>338</v>
-      </c>
+      <c r="E119" s="31"/>
       <c r="F119" s="31" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="G119" s="31" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" s="31"/>
       <c r="C120" s="31"/>
       <c r="D120" s="30"/>
       <c r="E120" s="31"/>
       <c r="F120" s="31" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="G120" s="31" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" s="31"/>
       <c r="C121" s="31"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="31"/>
+      <c r="D121" s="30">
+        <v>2</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>334</v>
+      </c>
       <c r="F121" s="31" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G121" s="31" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="33" x14ac:dyDescent="0.35">
       <c r="B122" s="31"/>
       <c r="C122" s="31"/>
       <c r="D122" s="30"/>
       <c r="E122" s="31"/>
       <c r="F122" s="31" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="G122" s="31" t="s">
-        <v>368</v>
+        <v>738</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" s="31"/>
       <c r="C123" s="31"/>
       <c r="D123" s="30"/>
-      <c r="E123" s="31"/>
+      <c r="E123" s="31" t="s">
+        <v>338</v>
+      </c>
       <c r="F123" s="31" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="33" x14ac:dyDescent="0.35">
       <c r="B124" s="31"/>
       <c r="C124" s="31"/>
       <c r="D124" s="30"/>
-      <c r="E124" s="31" t="s">
-        <v>377</v>
-      </c>
+      <c r="E124" s="31"/>
       <c r="F124" s="31" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="33" x14ac:dyDescent="0.35">
       <c r="B125" s="31"/>
       <c r="C125" s="31"/>
       <c r="D125" s="30"/>
       <c r="E125" s="31"/>
       <c r="F125" s="31" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" s="31"/>
       <c r="C126" s="31"/>
       <c r="D126" s="30"/>
-      <c r="E126" s="31"/>
+      <c r="E126" s="31" t="s">
+        <v>341</v>
+      </c>
       <c r="F126" s="31" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I126" s="60" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127" s="31"/>
       <c r="C127" s="31"/>
       <c r="D127" s="30"/>
-      <c r="E127" s="31" t="s">
-        <v>384</v>
-      </c>
+      <c r="E127" s="31"/>
       <c r="F127" s="31" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128" s="31"/>
       <c r="C128" s="31"/>
       <c r="D128" s="30"/>
-      <c r="E128" s="31"/>
+      <c r="E128" s="31" t="s">
+        <v>344</v>
+      </c>
       <c r="F128" s="31" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="G128" s="31" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.35">
@@ -7197,13 +7087,13 @@
       <c r="D129" s="30"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="G129" s="31" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.35">
@@ -7211,16 +7101,16 @@
       <c r="C130" s="31"/>
       <c r="D130" s="30"/>
       <c r="E130" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>744</v>
+        <v>338</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="G130" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.35">
@@ -7229,13 +7119,13 @@
       <c r="D131" s="30"/>
       <c r="E131" s="31"/>
       <c r="F131" s="31" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="G131" s="31" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.35">
@@ -7244,50 +7134,43 @@
       <c r="D132" s="30"/>
       <c r="E132" s="31"/>
       <c r="F132" s="31" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="G132" s="31" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>745</v>
+        <v>661</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B133" s="31"/>
       <c r="C133" s="31"/>
-      <c r="D133" s="30">
-        <v>3</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>346</v>
-      </c>
+      <c r="D133" s="30"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="31" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="G133" s="31" t="s">
-        <v>747</v>
+        <v>368</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="I133" s="60" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B134" s="31"/>
       <c r="C134" s="31"/>
       <c r="D134" s="30"/>
       <c r="E134" s="31"/>
       <c r="F134" s="31" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="G134" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.35">
@@ -7295,448 +7178,451 @@
       <c r="C135" s="31"/>
       <c r="D135" s="30"/>
       <c r="E135" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="F135" s="31"/>
+        <v>377</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>378</v>
+      </c>
       <c r="G135" s="31" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B136" s="31"/>
       <c r="C136" s="31"/>
       <c r="D136" s="30"/>
-      <c r="E136" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="F136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31" t="s">
+        <v>379</v>
+      </c>
       <c r="G136" s="31" t="s">
-        <v>749</v>
+        <v>383</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="I136" s="31"/>
+        <v>661</v>
+      </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B137" s="31"/>
       <c r="C137" s="31"/>
       <c r="D137" s="30"/>
-      <c r="E137" s="31" t="s">
-        <v>374</v>
-      </c>
+      <c r="E137" s="31"/>
       <c r="F137" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="G137" s="31"/>
+        <v>380</v>
+      </c>
+      <c r="G137" s="31" t="s">
+        <v>381</v>
+      </c>
       <c r="H137" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="I137" s="31"/>
+        <v>666</v>
+      </c>
+      <c r="I137" s="58" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B138" s="31"/>
       <c r="C138" s="31"/>
       <c r="D138" s="30"/>
-      <c r="E138" s="31"/>
+      <c r="E138" s="31" t="s">
+        <v>384</v>
+      </c>
       <c r="F138" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="G138" s="31"/>
+        <v>385</v>
+      </c>
+      <c r="G138" s="31" t="s">
+        <v>388</v>
+      </c>
       <c r="H138" s="6" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B139" s="31"/>
       <c r="C139" s="31"/>
-      <c r="D139" s="30">
-        <v>4</v>
-      </c>
-      <c r="E139" s="31" t="s">
-        <v>350</v>
-      </c>
+      <c r="D139" s="30"/>
+      <c r="E139" s="31"/>
       <c r="F139" s="31" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="G139" s="31" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B140" s="31"/>
       <c r="C140" s="31"/>
-      <c r="D140" s="30">
-        <v>5</v>
-      </c>
-      <c r="E140" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="F140" s="31"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31" t="s">
+        <v>387</v>
+      </c>
       <c r="G140" s="31" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E141" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I141" s="60" t="s">
-        <v>752</v>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="F141" s="63" t="s">
+        <v>742</v>
+      </c>
+      <c r="G141" s="63" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G142" s="62" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B143" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C143" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="D143" s="30">
-        <v>1</v>
-      </c>
-      <c r="E143" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>687</v>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62" t="s">
+        <v>393</v>
+      </c>
+      <c r="G143" s="62" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B144" s="31"/>
       <c r="C144" s="31"/>
       <c r="D144" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="F144" s="31"/>
+        <v>346</v>
+      </c>
+      <c r="F144" s="31" t="s">
+        <v>347</v>
+      </c>
       <c r="G144" s="31" t="s">
-        <v>407</v>
+        <v>745</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+      <c r="I144" s="58" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
       <c r="D145" s="30"/>
-      <c r="E145" s="31" t="s">
-        <v>408</v>
-      </c>
+      <c r="E145" s="31"/>
       <c r="F145" s="31" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="G145" s="31" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B146" s="31"/>
       <c r="C146" s="31"/>
       <c r="D146" s="30"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="G146" s="31"/>
+      <c r="E146" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31" t="s">
+        <v>372</v>
+      </c>
       <c r="H146" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B147" s="31"/>
       <c r="C147" s="31"/>
-      <c r="D147" s="30">
-        <v>3</v>
-      </c>
+      <c r="D147" s="30"/>
       <c r="E147" s="31" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="F147" s="31"/>
       <c r="G147" s="31" t="s">
-        <v>412</v>
+        <v>747</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+      <c r="I147" s="31"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B148" s="31"/>
       <c r="C148" s="31"/>
-      <c r="D148" s="30">
-        <v>4</v>
-      </c>
+      <c r="D148" s="30"/>
       <c r="E148" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31" t="s">
-        <v>414</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="F148" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="G148" s="31"/>
       <c r="H148" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+      <c r="I148" s="31"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B149" s="31"/>
       <c r="C149" s="31"/>
-      <c r="D149" s="30">
-        <v>5</v>
-      </c>
-      <c r="E149" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31" t="s">
-        <v>415</v>
-      </c>
+      <c r="D149" s="30"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G149" s="31"/>
       <c r="H149" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B150" s="31"/>
       <c r="C150" s="31"/>
       <c r="D150" s="30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="F150" s="31"/>
+        <v>350</v>
+      </c>
+      <c r="F150" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="G150" s="31" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B151" s="31"/>
       <c r="C151" s="31"/>
       <c r="D151" s="30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="F151" s="31"/>
       <c r="G151" s="31" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="30">
-        <v>8</v>
-      </c>
-      <c r="E152" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="F152" s="31"/>
-      <c r="G152" s="31" t="s">
-        <v>421</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E152" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="31"/>
-    </row>
-    <row r="154" spans="2:8" ht="33" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+      <c r="I152" s="58" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B154" s="31" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="D154" s="30">
         <v>1</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="F154" s="31"/>
       <c r="G154" s="31" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B155" s="31"/>
       <c r="C155" s="31"/>
       <c r="D155" s="30">
         <v>2</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="F155" s="31"/>
       <c r="G155" s="31" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B156" s="31"/>
       <c r="C156" s="31"/>
-      <c r="D156" s="30">
-        <v>3</v>
-      </c>
+      <c r="D156" s="30"/>
       <c r="E156" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="F156" s="31"/>
+        <v>407</v>
+      </c>
+      <c r="F156" s="31" t="s">
+        <v>160</v>
+      </c>
       <c r="G156" s="31" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B157" s="31"/>
       <c r="C157" s="31"/>
-      <c r="D157" s="30">
-        <v>4</v>
-      </c>
-      <c r="E157" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="F157" s="31"/>
-      <c r="G157" s="31" t="s">
-        <v>431</v>
-      </c>
+      <c r="D157" s="30"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="G157" s="31"/>
       <c r="H157" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B158" s="31"/>
       <c r="C158" s="31"/>
       <c r="D158" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="F158" s="31"/>
       <c r="G158" s="31" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="D159" s="6">
-        <v>6</v>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="30">
+        <v>4</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="F159" s="31"/>
       <c r="G159" s="31" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="30">
+        <v>5</v>
+      </c>
+      <c r="E160" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B161" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="C161" s="31" t="s">
-        <v>437</v>
-      </c>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
       <c r="D161" s="30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="F161" s="31"/>
       <c r="G161" s="31" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" ht="33" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="F162" s="31"/>
       <c r="G162" s="31" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" ht="49.5" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" ht="33" x14ac:dyDescent="0.35">
       <c r="B163" s="31"/>
       <c r="C163" s="31"/>
       <c r="D163" s="30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="F163" s="31" t="s">
-        <v>442</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="F163" s="31"/>
       <c r="G163" s="31" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.35">
@@ -7744,165 +7630,168 @@
       <c r="C164" s="31"/>
       <c r="D164" s="30"/>
       <c r="E164" s="31"/>
-      <c r="F164" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="G164" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31" t="s">
-        <v>445</v>
-      </c>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
+    </row>
+    <row r="165" spans="2:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="B165" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="C165" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="D165" s="30">
+        <v>1</v>
+      </c>
+      <c r="E165" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="F165" s="31"/>
       <c r="G165" s="31" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="B167" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C167" s="31" t="s">
-        <v>447</v>
-      </c>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="30">
+        <v>2</v>
+      </c>
+      <c r="E166" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
       <c r="D167" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="F167" s="31"/>
       <c r="G167" s="31" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B168" s="31"/>
       <c r="C168" s="31"/>
       <c r="D168" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="F168" s="31" t="s">
-        <v>451</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="F168" s="31"/>
       <c r="G168" s="31" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B169" s="31"/>
       <c r="C169" s="31"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31" t="s">
-        <v>453</v>
-      </c>
+      <c r="D169" s="30">
+        <v>5</v>
+      </c>
+      <c r="E169" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="F169" s="31"/>
       <c r="G169" s="31" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31" t="s">
-        <v>455</v>
-      </c>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="D170" s="6">
+        <v>6</v>
+      </c>
+      <c r="E170" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="F170" s="31"/>
       <c r="G170" s="31" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="G171" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B172" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>436</v>
+      </c>
       <c r="D172" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="F172" s="31"/>
       <c r="G172" s="31" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="33" x14ac:dyDescent="0.35">
       <c r="B173" s="31"/>
       <c r="C173" s="31"/>
       <c r="D173" s="30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="F173" s="31" t="s">
-        <v>462</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="F173" s="31"/>
       <c r="G173" s="31" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" ht="49.5" x14ac:dyDescent="0.35">
       <c r="B174" s="31"/>
       <c r="C174" s="31"/>
-      <c r="D174" s="30"/>
-      <c r="E174" s="31"/>
+      <c r="D174" s="30">
+        <v>3</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>445</v>
+      </c>
       <c r="F174" s="31" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G174" s="31" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.35">
@@ -7911,13 +7800,13 @@
       <c r="D175" s="30"/>
       <c r="E175" s="31"/>
       <c r="F175" s="31" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="G175" s="31" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.35">
@@ -7926,725 +7815,891 @@
       <c r="D176" s="30"/>
       <c r="E176" s="31"/>
       <c r="F176" s="31" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="G176" s="31" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="30">
-        <v>5</v>
-      </c>
-      <c r="E177" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="F177" s="31"/>
-      <c r="G177" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="H177" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="B178" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>446</v>
+      </c>
       <c r="D178" s="30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="F178" s="31" t="s">
-        <v>462</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="F178" s="31"/>
       <c r="G178" s="31" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179" s="31"/>
       <c r="C179" s="31"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="31"/>
+      <c r="D179" s="30">
+        <v>2</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>449</v>
+      </c>
       <c r="F179" s="31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G179" s="31" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B180" s="31"/>
       <c r="C180" s="31"/>
       <c r="D180" s="30"/>
       <c r="E180" s="31"/>
       <c r="F180" s="31" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="G180" s="31" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" s="31"/>
       <c r="C181" s="31"/>
       <c r="D181" s="30"/>
       <c r="E181" s="31"/>
       <c r="F181" s="31" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G181" s="31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182" s="31"/>
       <c r="C182" s="31"/>
-      <c r="D182" s="30">
-        <v>7</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="F182" s="31"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31" t="s">
+        <v>456</v>
+      </c>
       <c r="G182" s="31" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" ht="33" x14ac:dyDescent="0.35">
       <c r="B183" s="31"/>
       <c r="C183" s="31"/>
       <c r="D183" s="30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="F183" s="31" t="s">
-        <v>451</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="F183" s="31"/>
       <c r="G183" s="31" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B184" s="31"/>
       <c r="C184" s="31"/>
-      <c r="D184" s="30"/>
-      <c r="E184" s="31"/>
+      <c r="D184" s="30">
+        <v>4</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>460</v>
+      </c>
       <c r="F184" s="31" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G184" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B185" s="31"/>
       <c r="C185" s="31"/>
       <c r="D185" s="30"/>
       <c r="E185" s="31"/>
       <c r="F185" s="31" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G185" s="31" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B186" s="31"/>
       <c r="C186" s="31"/>
       <c r="D186" s="30"/>
       <c r="E186" s="31"/>
       <c r="F186" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="G186" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B187" s="31"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="G187" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="30">
+        <v>5</v>
+      </c>
+      <c r="E188" s="31" t="s">
         <v>464</v>
-      </c>
-      <c r="G186" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="H186" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B188" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="C188" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="D188" s="30">
-        <v>1</v>
-      </c>
-      <c r="E188" s="31" t="s">
-        <v>476</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I188" s="60" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B190" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="D190" s="30">
-        <v>1</v>
-      </c>
-      <c r="E190" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="F190" s="35">
-        <v>0.99998842592592585</v>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="30">
+        <v>6</v>
+      </c>
+      <c r="E189" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="F189" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="G189" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31" t="s">
+        <v>452</v>
       </c>
       <c r="G190" s="31" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
       <c r="D191" s="30"/>
       <c r="E191" s="31"/>
-      <c r="F191" s="36">
-        <v>1</v>
+      <c r="F191" s="31" t="s">
+        <v>467</v>
       </c>
       <c r="G191" s="31" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
       <c r="D192" s="30"/>
       <c r="E192" s="31"/>
-      <c r="F192" s="35">
-        <v>1.1574074074074073E-5</v>
+      <c r="F192" s="31" t="s">
+        <v>456</v>
       </c>
       <c r="G192" s="31" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="193" spans="4:9" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
       <c r="D193" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="F193" s="35">
-        <v>0.99998842592592585</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="F193" s="31"/>
       <c r="G193" s="31" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="194" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D194" s="30"/>
-      <c r="E194" s="31"/>
-      <c r="F194" s="36">
-        <v>1</v>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="30">
+        <v>8</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="F194" s="31" t="s">
+        <v>450</v>
       </c>
       <c r="G194" s="31" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="195" spans="4:9" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
       <c r="D195" s="30"/>
       <c r="E195" s="31"/>
-      <c r="F195" s="35">
-        <v>1.1574074074074073E-5</v>
+      <c r="F195" s="31" t="s">
+        <v>452</v>
       </c>
       <c r="G195" s="31" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="196" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D196" s="30">
-        <v>3</v>
-      </c>
-      <c r="E196" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="F196" s="35">
-        <v>0.99998842592592585</v>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B196" s="31"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31" t="s">
+        <v>454</v>
       </c>
       <c r="G196" s="31" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="197" spans="4:9" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
       <c r="D197" s="30"/>
       <c r="E197" s="31"/>
-      <c r="F197" s="36">
+      <c r="F197" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="G197" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B199" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C199" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="D199" s="30">
         <v>1</v>
       </c>
-      <c r="G197" s="31" t="s">
+      <c r="E199" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="I199" s="58" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B201" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D201" s="30">
+        <v>1</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="F201" s="35">
+        <v>0.99998842592592585</v>
+      </c>
+      <c r="G201" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D202" s="30"/>
+      <c r="E202" s="31"/>
+      <c r="F202" s="36">
+        <v>1</v>
+      </c>
+      <c r="G202" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D203" s="30"/>
+      <c r="E203" s="31"/>
+      <c r="F203" s="35">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="G203" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D204" s="30">
+        <v>2</v>
+      </c>
+      <c r="E204" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="H197" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="198" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D198" s="30"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="35">
+      <c r="F204" s="35">
+        <v>0.99998842592592585</v>
+      </c>
+      <c r="G204" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D205" s="30"/>
+      <c r="E205" s="31"/>
+      <c r="F205" s="36">
+        <v>1</v>
+      </c>
+      <c r="G205" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D206" s="30"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="35">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G198" s="31" t="s">
+      <c r="G206" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D207" s="30">
+        <v>3</v>
+      </c>
+      <c r="E207" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="H198" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="199" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D199" s="6">
+      <c r="F207" s="35">
+        <v>0.99998842592592585</v>
+      </c>
+      <c r="G207" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D208" s="30"/>
+      <c r="E208" s="31"/>
+      <c r="F208" s="36">
+        <v>1</v>
+      </c>
+      <c r="G208" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="209" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D209" s="30"/>
+      <c r="E209" s="31"/>
+      <c r="F209" s="35">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="G209" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="210" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D210" s="6">
         <v>4</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E210" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G210" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G199" s="7" t="s">
+      <c r="H210" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="211" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E211" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="H199" s="6" t="s">
+      <c r="G211" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H211" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="212" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E212" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="213" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F213" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="214" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F214" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="215" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F215" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="216" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E216" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="I216" s="58" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="217" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E217" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="F217" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="G217" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="H217" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="218" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E218" s="33"/>
+      <c r="F218" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="G218" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="219" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E219" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="220" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E220" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="F220" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="G220" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="221" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E221" s="33"/>
+      <c r="F221" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="G221" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="H221" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="222" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E222" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="223" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F223" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="224" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D224" s="6">
+        <v>5</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="H224" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="I224" s="58" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E225" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="H225" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="B227" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D227" s="6">
+        <v>1</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D228" s="6">
+        <v>2</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H228" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="B230" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D230" s="6">
+        <v>1</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G230" s="7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="200" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E200" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="G200" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="H200" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="201" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E201" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H201" s="6" t="s">
+      <c r="H230" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="B232" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C232" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D232" s="6">
+        <v>1</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H232" s="6" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="202" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F202" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="H202" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="203" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F203" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="H203" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="204" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F204" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="H204" s="6" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="205" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E205" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="H205" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I205" s="60" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="206" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E206" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="F206" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="G206" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="H206" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="207" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E207" s="33"/>
-      <c r="F207" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="G207" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="H207" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="208" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E208" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="H208" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E209" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="F209" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="G209" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="H209" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E210" s="33"/>
-      <c r="F210" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="G210" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="H210" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E211" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H211" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="F212" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="G212" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="H212" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D213" s="6">
-        <v>5</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="H213" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I213" s="60" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E214" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="G214" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="H214" s="6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="B216" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D216" s="6">
+      <c r="I232" s="58" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F233" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B235" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D235" s="6">
         <v>1</v>
       </c>
-      <c r="E216" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H216" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D217" s="6">
+      <c r="E235" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D236" s="6">
         <v>2</v>
       </c>
-      <c r="E217" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H217" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="B219" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="D219" s="6">
-        <v>1</v>
-      </c>
-      <c r="E219" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="H219" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="B221" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C221" s="39" t="s">
-        <v>597</v>
-      </c>
-      <c r="D221" s="6">
-        <v>1</v>
-      </c>
-      <c r="E221" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="F221" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="H221" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="I221" s="60" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="F222" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B224" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D224" s="6">
-        <v>1</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="G224" s="7" t="s">
+      <c r="E236" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="H224" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="225" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D225" s="6">
-        <v>2</v>
-      </c>
-      <c r="E225" s="5" t="s">
+      <c r="G236" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="G225" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="H225" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="237" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F237" s="7"/>
-    </row>
-    <row r="238" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F238" s="7"/>
-    </row>
-    <row r="239" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F239" s="7"/>
-    </row>
-    <row r="240" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F240" s="7"/>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F241" s="7"/>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F242" s="7"/>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F243" s="7"/>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F244" s="7"/>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F245" s="7"/>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F246" s="7"/>
+      <c r="H236" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F248" s="7"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F249" s="7"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F250" s="7"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F251" s="7"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F252" s="7"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F253" s="7"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F254" s="7"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F255" s="7"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F256" s="7"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F257" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H81 H83:H85 H237:H1048576 H87:H226">
-    <cfRule type="cellIs" dxfId="51" priority="8" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H94:H96 H248:H1048576 H1:H92 H98:H237">
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="48" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H97">
+    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H93">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8653,23 +8708,23 @@
     <hyperlink ref="I13" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1153"/>
     <hyperlink ref="I18" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-1154"/>
     <hyperlink ref="I21" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-1155"/>
-    <hyperlink ref="I44" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-1156"/>
-    <hyperlink ref="I57" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-1157"/>
-    <hyperlink ref="I58" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-1158"/>
-    <hyperlink ref="I69" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-1159"/>
-    <hyperlink ref="I75" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-1160"/>
-    <hyperlink ref="I77" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-1161"/>
-    <hyperlink ref="I79" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-1162"/>
-    <hyperlink ref="I86" r:id="rId12" display="http://192.168.199.122:8880/browse/BG-1160"/>
-    <hyperlink ref="I82" r:id="rId13" display="http://192.168.199.122:8880/browse/BG-1160"/>
-    <hyperlink ref="I98" r:id="rId14" display="http://192.168.199.122:8880/browse/BG-1163"/>
-    <hyperlink ref="I126" r:id="rId15" display="http://192.168.199.122:8880/browse/BG-1164"/>
-    <hyperlink ref="I133" r:id="rId16" display="http://192.168.199.122:8880/browse/BG-1165"/>
-    <hyperlink ref="I141" r:id="rId17" display="http://192.168.199.122:8880/browse/BG-1166"/>
-    <hyperlink ref="I188" r:id="rId18" display="http://192.168.199.122:8880/browse/BG-1167"/>
-    <hyperlink ref="I221" r:id="rId19" display="http://192.168.199.122:8880/browse/BG-1168"/>
-    <hyperlink ref="I213" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-1175"/>
-    <hyperlink ref="I205" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1176"/>
+    <hyperlink ref="I48" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-1156"/>
+    <hyperlink ref="I68" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-1157"/>
+    <hyperlink ref="I69" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-1158"/>
+    <hyperlink ref="I80" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-1159"/>
+    <hyperlink ref="I86" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-1160"/>
+    <hyperlink ref="I88" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-1161"/>
+    <hyperlink ref="I90" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-1162"/>
+    <hyperlink ref="I97" r:id="rId12" display="http://192.168.199.122:8880/browse/BG-1160"/>
+    <hyperlink ref="I93" r:id="rId13" display="http://192.168.199.122:8880/browse/BG-1160"/>
+    <hyperlink ref="I109" r:id="rId14" display="http://192.168.199.122:8880/browse/BG-1163"/>
+    <hyperlink ref="I137" r:id="rId15" display="http://192.168.199.122:8880/browse/BG-1164"/>
+    <hyperlink ref="I144" r:id="rId16" display="http://192.168.199.122:8880/browse/BG-1165"/>
+    <hyperlink ref="I152" r:id="rId17" display="http://192.168.199.122:8880/browse/BG-1166"/>
+    <hyperlink ref="I199" r:id="rId18" display="http://192.168.199.122:8880/browse/BG-1167"/>
+    <hyperlink ref="I232" r:id="rId19" display="http://192.168.199.122:8880/browse/BG-1168"/>
+    <hyperlink ref="I224" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-1175"/>
+    <hyperlink ref="I216" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1176"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
@@ -8711,9 +8766,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -8749,130 +8804,130 @@
     </row>
     <row r="3" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>644</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>646</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>768</v>
+        <v>765</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F4" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F5" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F6" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F7" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F8" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F9" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F10" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F11" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="F12" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>768</v>
+        <v>767</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -8904,7 +8959,7 @@
         <v>144</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="31"/>
@@ -8920,7 +8975,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
@@ -8941,7 +8996,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="31"/>
@@ -8957,7 +9012,7 @@
         <v>50</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="31"/>
@@ -8970,10 +9025,10 @@
         <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
@@ -8991,10 +9046,10 @@
         <v>146</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="31"/>
@@ -9010,7 +9065,7 @@
         <v>150</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="31"/>
@@ -9032,7 +9087,7 @@
         <v>77</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J21" s="30"/>
       <c r="K21" s="31"/>
@@ -9048,7 +9103,7 @@
         <v>53</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J22" s="30"/>
       <c r="K22" s="31"/>
@@ -9069,10 +9124,10 @@
         <v>57</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>772</v>
+        <v>767</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>770</v>
       </c>
       <c r="J23" s="30"/>
       <c r="K23" s="31"/>
@@ -9084,10 +9139,10 @@
         <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
@@ -9099,10 +9154,10 @@
         <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="31"/>
@@ -9114,10 +9169,10 @@
         <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J26" s="30"/>
       <c r="K26" s="31"/>
@@ -9133,7 +9188,7 @@
         <v>152</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="31"/>
@@ -9149,7 +9204,7 @@
         <v>154</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="31"/>
@@ -9164,7 +9219,7 @@
         <v>60</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="31"/>
@@ -9179,7 +9234,7 @@
         <v>61</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="31"/>
@@ -9197,7 +9252,7 @@
         <v>63</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J31" s="30"/>
       <c r="K31" s="31"/>
@@ -9213,10 +9268,10 @@
         <v>69</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>785</v>
+        <v>666</v>
+      </c>
+      <c r="I32" s="58" t="s">
+        <v>783</v>
       </c>
       <c r="J32" s="30"/>
       <c r="K32" s="31"/>
@@ -9231,7 +9286,7 @@
         <v>65</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J33" s="30"/>
       <c r="K33" s="31"/>
@@ -9246,7 +9301,7 @@
         <v>67</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J34" s="30"/>
       <c r="K34" s="31"/>
@@ -9264,7 +9319,7 @@
         <v>79</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J35" s="30"/>
       <c r="K35" s="31"/>
@@ -9280,7 +9335,7 @@
         <v>72</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J36" s="30"/>
       <c r="K36" s="31"/>
@@ -9295,7 +9350,7 @@
         <v>74</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J37" s="30"/>
       <c r="K37" s="31"/>
@@ -9310,7 +9365,7 @@
         <v>76</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J38" s="30"/>
       <c r="K38" s="31"/>
@@ -9328,7 +9383,7 @@
         <v>94</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J39" s="30"/>
       <c r="K39" s="31"/>
@@ -9343,7 +9398,7 @@
         <v>82</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J40" s="30"/>
       <c r="K40" s="31"/>
@@ -9359,7 +9414,7 @@
         <v>98</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J41" s="30"/>
       <c r="K41" s="31"/>
@@ -9372,10 +9427,10 @@
         <v>81</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J42" s="30"/>
       <c r="K42" s="31"/>
@@ -9393,7 +9448,7 @@
         <v>156</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J43" s="30"/>
       <c r="K43" s="31"/>
@@ -9408,7 +9463,7 @@
         <v>158</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J44" s="30"/>
       <c r="K44" s="31"/>
@@ -9426,10 +9481,10 @@
         <v>86</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I45" s="60" t="s">
-        <v>786</v>
+        <v>666</v>
+      </c>
+      <c r="I45" s="58" t="s">
+        <v>784</v>
       </c>
       <c r="J45" s="30"/>
       <c r="K45" s="31"/>
@@ -9450,7 +9505,7 @@
         <v>87</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J46" s="30"/>
       <c r="K46" s="31"/>
@@ -9462,10 +9517,10 @@
         <v>160</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J47" s="30"/>
       <c r="K47" s="31"/>
@@ -9477,10 +9532,10 @@
         <v>161</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J48" s="30"/>
       <c r="K48" s="31"/>
@@ -9492,10 +9547,10 @@
         <v>162</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J49" s="30"/>
       <c r="K49" s="31"/>
@@ -9513,7 +9568,7 @@
         <v>90</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J50" s="30"/>
       <c r="K50" s="31"/>
@@ -9528,7 +9583,7 @@
         <v>95</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J51" s="30"/>
       <c r="K51" s="31"/>
@@ -9543,7 +9598,7 @@
         <v>96</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J52" s="30"/>
       <c r="K52" s="31"/>
@@ -9558,7 +9613,7 @@
         <v>97</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J53" s="30"/>
       <c r="K53" s="31"/>
@@ -9576,7 +9631,7 @@
         <v>156</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J54" s="30"/>
       <c r="K54" s="31"/>
@@ -9591,7 +9646,7 @@
         <v>158</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J55" s="30"/>
       <c r="K55" s="31"/>
@@ -9603,13 +9658,13 @@
         <v>15</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J56" s="30"/>
       <c r="K56" s="31"/>
@@ -9618,13 +9673,13 @@
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F57" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J57" s="30"/>
       <c r="K57" s="31"/>
@@ -9645,10 +9700,10 @@
         <v>105</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I58" s="60" t="s">
-        <v>792</v>
+        <v>666</v>
+      </c>
+      <c r="I58" s="58" t="s">
+        <v>790</v>
       </c>
       <c r="J58" s="30"/>
       <c r="K58" s="31"/>
@@ -9663,10 +9718,10 @@
         <v>106</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I59" s="60" t="s">
-        <v>792</v>
+        <v>666</v>
+      </c>
+      <c r="I59" s="58" t="s">
+        <v>790</v>
       </c>
       <c r="J59" s="30"/>
       <c r="K59" s="31"/>
@@ -9681,10 +9736,10 @@
         <v>107</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I60" s="60" t="s">
-        <v>792</v>
+        <v>666</v>
+      </c>
+      <c r="I60" s="58" t="s">
+        <v>790</v>
       </c>
       <c r="J60" s="30"/>
       <c r="K60" s="31"/>
@@ -9705,7 +9760,7 @@
         <v>112</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J61" s="30"/>
       <c r="K61" s="31"/>
@@ -9720,10 +9775,10 @@
         <v>112</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="I62" s="60" t="s">
-        <v>792</v>
+        <v>678</v>
+      </c>
+      <c r="I62" s="58" t="s">
+        <v>790</v>
       </c>
       <c r="J62" s="30"/>
       <c r="K62" s="31"/>
@@ -9738,10 +9793,10 @@
         <v>112</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="I63" s="60" t="s">
-        <v>792</v>
+        <v>678</v>
+      </c>
+      <c r="I63" s="58" t="s">
+        <v>790</v>
       </c>
       <c r="J63" s="30"/>
       <c r="K63" s="31"/>
@@ -9756,10 +9811,10 @@
         <v>112</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="I64" s="60" t="s">
-        <v>792</v>
+        <v>666</v>
+      </c>
+      <c r="I64" s="58" t="s">
+        <v>790</v>
       </c>
       <c r="J64" s="30"/>
       <c r="K64" s="31"/>
@@ -9789,7 +9844,7 @@
         <v>122</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J66" s="30"/>
       <c r="K66" s="31"/>
@@ -9807,7 +9862,7 @@
         <v>121</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J67" s="30"/>
       <c r="K67" s="31"/>
@@ -9822,7 +9877,7 @@
         <v>119</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J68" s="30"/>
       <c r="K68" s="31"/>
@@ -9837,7 +9892,7 @@
         <v>120</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J69" s="30"/>
       <c r="K69" s="31"/>
@@ -9858,7 +9913,7 @@
         <v>126</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J70" s="30"/>
       <c r="K70" s="31"/>
@@ -9873,7 +9928,7 @@
         <v>127</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J71" s="30"/>
       <c r="K71" s="31"/>
@@ -9891,7 +9946,7 @@
         <v>129</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J72" s="30"/>
       <c r="K72" s="31"/>
@@ -9915,13 +9970,13 @@
         <v>1</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J74" s="30"/>
       <c r="K74" s="31"/>
@@ -9939,7 +9994,7 @@
         <v>134</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J75" s="30"/>
       <c r="K75" s="31"/>
@@ -9964,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>137</v>
@@ -9973,7 +10028,7 @@
         <v>138</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J77" s="30"/>
       <c r="K77" s="31"/>
@@ -9991,7 +10046,7 @@
         <v>140</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K78" s="31"/>
       <c r="L78" s="31"/>
@@ -10014,13 +10069,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K80" s="31"/>
       <c r="L80" s="31"/>
@@ -10031,14 +10086,14 @@
         <v>2</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K81" s="31"/>
       <c r="L81" s="31"/>
@@ -10049,14 +10104,14 @@
         <v>3</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K82" s="31"/>
       <c r="L82" s="31"/>
@@ -10067,14 +10122,14 @@
         <v>4</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K83" s="31"/>
       <c r="L83" s="31"/>
@@ -10083,14 +10138,14 @@
     <row r="84" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D84" s="38"/>
       <c r="E84" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K84" s="31"/>
       <c r="L84" s="31"/>
@@ -10103,10 +10158,10 @@
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K85" s="31"/>
     </row>
@@ -10115,16 +10170,16 @@
         <v>5</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F86" s="33" t="s">
         <v>160</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K86" s="31"/>
     </row>
@@ -10135,10 +10190,10 @@
         <v>148</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K87" s="31"/>
     </row>
@@ -10146,13 +10201,13 @@
       <c r="D88" s="38"/>
       <c r="E88" s="33"/>
       <c r="F88" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="H88" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K88" s="31"/>
     </row>
@@ -10160,93 +10215,93 @@
       <c r="D89" s="38"/>
       <c r="E89" s="33"/>
       <c r="F89" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="H89" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D90" s="38"/>
       <c r="E90" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="F90" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="F90" s="37" t="s">
+      <c r="G90" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="H90" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="91" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D91" s="38"/>
       <c r="E91" s="33"/>
       <c r="F91" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="H91" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="92" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D92" s="38"/>
       <c r="E92" s="33"/>
       <c r="F92" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="H92" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="93" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D93" s="38"/>
       <c r="E93" s="33"/>
       <c r="F93" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="H93" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="94" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D94" s="38"/>
       <c r="E94" s="33"/>
       <c r="F94" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>535</v>
-      </c>
       <c r="H94" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="95" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D95" s="38"/>
       <c r="E95" s="33"/>
       <c r="F95" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>537</v>
-      </c>
       <c r="H95" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="96" spans="4:13" x14ac:dyDescent="0.35">
@@ -10254,16 +10309,16 @@
         <v>6</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F96" s="33" t="s">
         <v>160</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="97" spans="4:8" x14ac:dyDescent="0.35">
@@ -10273,10 +10328,10 @@
         <v>146</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.35">
@@ -10286,10 +10341,10 @@
         <v>149</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.35">
@@ -10299,10 +10354,10 @@
         <v>148</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="100" spans="4:8" ht="33" x14ac:dyDescent="0.35">
@@ -10310,14 +10365,14 @@
         <v>7</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.35">
@@ -10327,10 +10382,10 @@
         <v>149</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.35">
@@ -10340,148 +10395,148 @@
         <v>148</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D103" s="38"/>
       <c r="E103" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="F103" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="F103" s="33" t="s">
+      <c r="G103" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="G103" s="33" t="s">
-        <v>546</v>
-      </c>
       <c r="H103" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D104" s="38"/>
       <c r="E104" s="33"/>
       <c r="F104" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="G104" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="G104" s="33" t="s">
-        <v>548</v>
-      </c>
       <c r="H104" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D105" s="38"/>
       <c r="E105" s="33"/>
       <c r="F105" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="G105" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="G105" s="33" t="s">
-        <v>550</v>
-      </c>
       <c r="H105" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D106" s="38"/>
       <c r="E106" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="G106" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="F106" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="G106" s="33" t="s">
-        <v>552</v>
-      </c>
       <c r="H106" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D107" s="38"/>
       <c r="E107" s="33"/>
       <c r="F107" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="G107" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="G107" s="33" t="s">
-        <v>554</v>
-      </c>
       <c r="H107" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D108" s="38"/>
       <c r="E108" s="33"/>
       <c r="F108" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D109" s="38"/>
       <c r="E109" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="F109" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="F109" s="33" t="s">
+      <c r="G109" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="G109" s="33" t="s">
-        <v>558</v>
-      </c>
       <c r="H109" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D110" s="38"/>
       <c r="E110" s="33"/>
       <c r="F110" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G110" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="G110" s="33" t="s">
-        <v>560</v>
-      </c>
       <c r="H110" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D111" s="38"/>
       <c r="E111" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="F111" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="G111" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="F111" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="G111" s="33" t="s">
-        <v>562</v>
-      </c>
       <c r="H111" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D112" s="38"/>
       <c r="E112" s="33"/>
       <c r="F112" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.35">
@@ -10489,55 +10544,55 @@
         <v>8</v>
       </c>
       <c r="E113" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="F113" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="F113" s="33" t="s">
+      <c r="G113" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="G113" s="33" t="s">
-        <v>566</v>
-      </c>
       <c r="H113" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D114" s="38"/>
       <c r="E114" s="33"/>
       <c r="F114" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="G114" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="G114" s="33" t="s">
-        <v>568</v>
-      </c>
       <c r="H114" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D115" s="38"/>
       <c r="E115" s="33"/>
       <c r="F115" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="G115" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="G115" s="33" t="s">
-        <v>570</v>
-      </c>
       <c r="H115" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="116" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D116" s="38"/>
       <c r="E116" s="33"/>
       <c r="F116" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="G116" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="G116" s="33" t="s">
-        <v>572</v>
-      </c>
       <c r="H116" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.35">
@@ -10545,68 +10600,68 @@
         <v>9</v>
       </c>
       <c r="E117" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="G117" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="F117" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="G117" s="33" t="s">
-        <v>574</v>
-      </c>
       <c r="H117" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D118" s="38"/>
       <c r="E118" s="33"/>
       <c r="F118" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G118" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D119" s="38"/>
       <c r="E119" s="33"/>
       <c r="F119" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D120" s="38"/>
       <c r="E120" s="33"/>
       <c r="F120" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D121" s="38"/>
       <c r="E121" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.35">
@@ -10614,83 +10669,83 @@
         <v>10</v>
       </c>
       <c r="E122" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F122" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="G122" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="F122" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="G122" s="33" t="s">
-        <v>581</v>
-      </c>
       <c r="H122" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D123" s="38"/>
       <c r="E123" s="33"/>
       <c r="F123" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D124" s="38"/>
       <c r="E124" s="33"/>
       <c r="F124" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D125" s="38"/>
       <c r="E125" s="33"/>
       <c r="F125" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="126" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D126" s="38"/>
       <c r="E126" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="127" spans="4:8" ht="33" x14ac:dyDescent="0.35">
       <c r="D127" s="38"/>
       <c r="E127" s="33"/>
       <c r="F127" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="G127" s="33" t="s">
+        <v>794</v>
+      </c>
+      <c r="H127" s="6" t="s">
         <v>795</v>
-      </c>
-      <c r="G127" s="33" t="s">
-        <v>796</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="128" spans="4:8" x14ac:dyDescent="0.35">
@@ -10698,27 +10753,27 @@
         <v>11</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="129" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D129" s="38"/>
       <c r="E129" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -10727,152 +10782,152 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K2:IU2 A2:G2">
-    <cfRule type="cellIs" dxfId="42" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:J77 K85:K88 J13:M58 K59:M84">
-    <cfRule type="cellIs" dxfId="40" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:J77 K85:K88 J13:M58 K59:M84">
-    <cfRule type="cellIs" dxfId="38" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="40" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:G28">
-    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:G28">
-    <cfRule type="cellIs" dxfId="32" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="37" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="34" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="26" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="31" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="23" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="28" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:G85 E86:E89 E96:G116">
-    <cfRule type="cellIs" dxfId="19" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E95">
-    <cfRule type="cellIs" dxfId="17" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117:G129">
-    <cfRule type="cellIs" dxfId="15" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D116">
-    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117:D129">
-    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11172,13 +11227,13 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D3:D39">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11215,7 +11270,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="41" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
@@ -11230,37 +11285,37 @@
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>610</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C2" s="45" t="s">
         <v>611</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>612</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>615</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="47" t="s">
         <v>619</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>620</v>
       </c>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
@@ -11271,16 +11326,16 @@
     </row>
     <row r="3" spans="1:18" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="50" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="D3" s="50" t="s">
         <v>623</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>624</v>
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="51"/>
@@ -11294,16 +11349,16 @@
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="C4" s="50" t="s">
         <v>626</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="50" t="s">
         <v>627</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>628</v>
       </c>
       <c r="I4" s="51">
         <v>1</v>
@@ -11311,16 +11366,16 @@
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>629</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="C5" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>630</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>627</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>631</v>
       </c>
       <c r="I5" s="51">
         <v>1</v>
@@ -11328,16 +11383,16 @@
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>632</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="C6" s="53" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>633</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>627</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>634</v>
       </c>
       <c r="I6" s="51">
         <v>1</v>
@@ -11345,16 +11400,16 @@
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>635</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="C7" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>636</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>637</v>
       </c>
       <c r="I7" s="55">
         <v>1</v>
@@ -11362,16 +11417,16 @@
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="B8" s="56" t="s">
         <v>638</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="C8" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>639</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>627</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>640</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>

--- a/qa/01.测试用例/副本系统/副本入口/阵容选择测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本入口/阵容选择测试用例.xlsx
@@ -49,7 +49,7 @@
     <definedName name="显示格式为_☆当前已获得星数_该章节可获得的总星数_满星奖励图标">#REF!</definedName>
     <definedName name="章节表">[1]配置结构!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="830">
   <si>
     <t>caseID</t>
   </si>
@@ -3263,14 +3263,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>显示为“综合BP：x”x为宠物A战力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“综合BP：x”x为宠物A、B、C战力和</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>查看战力数字显示</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3291,12 +3283,49 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>数字显示为正常字色</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>显示BP：A</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字显示为绿色</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2036</t>
+  </si>
+  <si>
+    <t>BG-2037</t>
+  </si>
+  <si>
+    <t>显示为“综合战力：xxxx”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“综合战力：x”x为宠物A战力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“综合战力：x”x为宠物A、B、C战力和</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2038</t>
   </si>
 </sst>
 </file>
@@ -3747,17 +3776,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5034,10 +5063,10 @@
   <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5060,9 +5089,9 @@
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -5543,50 +5572,62 @@
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="60" t="s">
         <v>801</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="60" t="s">
         <v>802</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="60" t="s">
         <v>806</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62" t="s">
+      <c r="E32" s="60"/>
+      <c r="F32" s="60" t="s">
         <v>803</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="60" t="s">
         <v>807</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62" t="s">
+      <c r="E33" s="60"/>
+      <c r="F33" s="60" t="s">
         <v>804</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="60" t="s">
         <v>808</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62" t="s">
+      <c r="E34" s="60"/>
+      <c r="F34" s="60" t="s">
         <v>805</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="60" t="s">
         <v>809</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -5816,14 +5857,17 @@
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
       <c r="D49" s="30"/>
-      <c r="E49" s="62" t="s">
+      <c r="E49" s="60" t="s">
         <v>810</v>
       </c>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="60" t="s">
         <v>802</v>
       </c>
-      <c r="G49" s="62" t="s">
+      <c r="G49" s="60" t="s">
         <v>806</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>821</v>
       </c>
       <c r="I49" s="58"/>
     </row>
@@ -5831,25 +5875,33 @@
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
       <c r="D50" s="30"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62" t="s">
+      <c r="E50" s="60"/>
+      <c r="F50" s="60" t="s">
         <v>803</v>
       </c>
-      <c r="G50" s="62" t="s">
-        <v>807</v>
-      </c>
-      <c r="I50" s="58"/>
+      <c r="G50" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="I50" s="58" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
       <c r="D51" s="30"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62" t="s">
+      <c r="E51" s="60"/>
+      <c r="F51" s="60" t="s">
         <v>811</v>
       </c>
-      <c r="G51" s="62" t="s">
-        <v>813</v>
+      <c r="G51" s="60" t="s">
+        <v>826</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>821</v>
       </c>
       <c r="I51" s="58"/>
     </row>
@@ -5857,12 +5909,15 @@
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62" t="s">
+      <c r="E52" s="60"/>
+      <c r="F52" s="60" t="s">
         <v>812</v>
       </c>
-      <c r="G52" s="62" t="s">
-        <v>814</v>
+      <c r="G52" s="60" t="s">
+        <v>827</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>821</v>
       </c>
       <c r="I52" s="58"/>
     </row>
@@ -5870,42 +5925,57 @@
       <c r="B53" s="30"/>
       <c r="C53" s="31"/>
       <c r="D53" s="30"/>
-      <c r="E53" s="62" t="s">
+      <c r="E53" s="60" t="s">
+        <v>813</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>814</v>
+      </c>
+      <c r="G53" s="60" t="s">
         <v>815</v>
       </c>
-      <c r="F53" s="62" t="s">
-        <v>816</v>
-      </c>
-      <c r="G53" s="62" t="s">
-        <v>817</v>
-      </c>
-      <c r="I53" s="58"/>
+      <c r="H53" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="I53" s="58" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="30"/>
       <c r="C54" s="31"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62" t="s">
-        <v>818</v>
-      </c>
-      <c r="G54" s="62" t="s">
+      <c r="E54" s="60"/>
+      <c r="F54" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="G54" s="60" t="s">
         <v>820</v>
       </c>
-      <c r="I54" s="58"/>
+      <c r="H54" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="I54" s="58" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
       <c r="D55" s="30"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62" t="s">
-        <v>819</v>
-      </c>
-      <c r="G55" s="62" t="s">
+      <c r="E55" s="60"/>
+      <c r="F55" s="60" t="s">
+        <v>817</v>
+      </c>
+      <c r="G55" s="60" t="s">
         <v>820</v>
       </c>
-      <c r="I55" s="58"/>
+      <c r="H55" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="I55" s="58" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="30"/>
@@ -7274,38 +7344,53 @@
       <c r="B141" s="31"/>
       <c r="C141" s="31"/>
       <c r="D141" s="30"/>
-      <c r="E141" s="62" t="s">
+      <c r="E141" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="F141" s="63" t="s">
+      <c r="F141" s="61" t="s">
         <v>742</v>
       </c>
-      <c r="G141" s="63" t="s">
+      <c r="G141" s="61" t="s">
         <v>743</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B142" s="31"/>
       <c r="C142" s="31"/>
       <c r="D142" s="30"/>
-      <c r="E142" s="62"/>
-      <c r="F142" s="62" t="s">
+      <c r="E142" s="60"/>
+      <c r="F142" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="G142" s="62" t="s">
-        <v>821</v>
+      <c r="G142" s="60" t="s">
+        <v>818</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="I142" s="58" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B143" s="31"/>
       <c r="C143" s="31"/>
       <c r="D143" s="30"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62" t="s">
+      <c r="E143" s="60"/>
+      <c r="F143" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="G143" s="62" t="s">
+      <c r="G143" s="60" t="s">
         <v>394</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="I143" s="58" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.35">
@@ -8670,7 +8755,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="H94:H96 H248:H1048576 H1:H92 H98:H237">
+  <conditionalFormatting sqref="H94:H96 H248:H1048576 H98:H237 H1:H92">
     <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
@@ -8725,10 +8810,16 @@
     <hyperlink ref="I232" r:id="rId19" display="http://192.168.199.122:8880/browse/BG-1168"/>
     <hyperlink ref="I224" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-1175"/>
     <hyperlink ref="I216" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1176"/>
+    <hyperlink ref="I53" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-2036"/>
+    <hyperlink ref="I54" r:id="rId23" display="http://192.168.199.122:8880/browse/BG-2036"/>
+    <hyperlink ref="I55" r:id="rId24" display="http://192.168.199.122:8880/browse/BG-2036"/>
+    <hyperlink ref="I142" r:id="rId25" display="http://192.168.199.122:8880/browse/BG-2037"/>
+    <hyperlink ref="I143" r:id="rId26" display="http://192.168.199.122:8880/browse/BG-2037"/>
+    <hyperlink ref="I50" r:id="rId27" display="http://192.168.199.122:8880/browse/BG-2038"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
-  <drawing r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -8766,9 +8857,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
